--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H2">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N2">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q2">
-        <v>7.56169837659969</v>
+        <v>10.87873429649067</v>
       </c>
       <c r="R2">
-        <v>7.56169837659969</v>
+        <v>97.90860866841599</v>
       </c>
       <c r="S2">
-        <v>0.00079541202067476</v>
+        <v>0.0009648984540639231</v>
       </c>
       <c r="T2">
-        <v>0.00079541202067476</v>
+        <v>0.0009648984540639228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H3">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N3">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q3">
-        <v>135.1620710935676</v>
+        <v>166.5346158378124</v>
       </c>
       <c r="R3">
-        <v>135.1620710935676</v>
+        <v>1498.811542540312</v>
       </c>
       <c r="S3">
-        <v>0.01421764407051958</v>
+        <v>0.01477092729637405</v>
       </c>
       <c r="T3">
-        <v>0.01421764407051958</v>
+        <v>0.01477092729637405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H4">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N4">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q4">
-        <v>341.0493437030609</v>
+        <v>474.8377961406675</v>
       </c>
       <c r="R4">
-        <v>341.0493437030609</v>
+        <v>4273.540165266008</v>
       </c>
       <c r="S4">
-        <v>0.03587484373406573</v>
+        <v>0.04211613621035398</v>
       </c>
       <c r="T4">
-        <v>0.03587484373406573</v>
+        <v>0.04211613621035398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H5">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N5">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q5">
-        <v>376.8829502530764</v>
+        <v>468.9551753576791</v>
       </c>
       <c r="R5">
-        <v>376.8829502530764</v>
+        <v>4220.596578219112</v>
       </c>
       <c r="S5">
-        <v>0.03964416644101415</v>
+        <v>0.0415943722307722</v>
       </c>
       <c r="T5">
-        <v>0.03964416644101415</v>
+        <v>0.04159437223077219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H6">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I6">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J6">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N6">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q6">
-        <v>593.8196515125464</v>
+        <v>758.0885460103511</v>
       </c>
       <c r="R6">
-        <v>593.8196515125464</v>
+        <v>6822.79691409316</v>
       </c>
       <c r="S6">
-        <v>0.06246365107442598</v>
+        <v>0.06723929881483733</v>
       </c>
       <c r="T6">
-        <v>0.06246365107442598</v>
+        <v>0.06723929881483731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H7">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I7">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J7">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N7">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q7">
-        <v>156.9822893904415</v>
+        <v>248.5734080500782</v>
       </c>
       <c r="R7">
-        <v>156.9822893904415</v>
+        <v>2237.160672450704</v>
       </c>
       <c r="S7">
-        <v>0.01651290408522616</v>
+        <v>0.02204742671454831</v>
       </c>
       <c r="T7">
-        <v>0.01651290408522616</v>
+        <v>0.0220474267145483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H8">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N8">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q8">
-        <v>12.05298976962279</v>
+        <v>14.30535477224533</v>
       </c>
       <c r="R8">
-        <v>12.05298976962279</v>
+        <v>128.748192950208</v>
       </c>
       <c r="S8">
-        <v>0.001267849161703664</v>
+        <v>0.001268825428435017</v>
       </c>
       <c r="T8">
-        <v>0.001267849161703664</v>
+        <v>0.001268825428435017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H9">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N9">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q9">
-        <v>215.4419521906885</v>
+        <v>218.9902516681562</v>
       </c>
       <c r="R9">
-        <v>215.4419521906885</v>
+        <v>1970.912265013406</v>
       </c>
       <c r="S9">
-        <v>0.02266225257812641</v>
+        <v>0.01942352387058824</v>
       </c>
       <c r="T9">
-        <v>0.02266225257812641</v>
+        <v>0.01942352387058824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H10">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J10">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N10">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q10">
-        <v>543.6165324063114</v>
+        <v>624.4038091135837</v>
       </c>
       <c r="R10">
-        <v>543.6165324063114</v>
+        <v>5619.634282022254</v>
       </c>
       <c r="S10">
-        <v>0.05718280510256872</v>
+        <v>0.05538201905709526</v>
       </c>
       <c r="T10">
-        <v>0.05718280510256872</v>
+        <v>0.05538201905709526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H11">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J11">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N11">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q11">
-        <v>600.7336073867925</v>
+        <v>616.6682605655897</v>
       </c>
       <c r="R11">
-        <v>600.7336073867925</v>
+        <v>5550.014345090307</v>
       </c>
       <c r="S11">
-        <v>0.06319092732096454</v>
+        <v>0.05469590809676932</v>
       </c>
       <c r="T11">
-        <v>0.06319092732096454</v>
+        <v>0.05469590809676931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H12">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J12">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N12">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q12">
-        <v>946.52045456224</v>
+        <v>996.8738369639256</v>
       </c>
       <c r="R12">
-        <v>946.52045456224</v>
+        <v>8971.86453267533</v>
       </c>
       <c r="S12">
-        <v>0.09956410714597858</v>
+        <v>0.08841856028173731</v>
       </c>
       <c r="T12">
-        <v>0.09956410714597858</v>
+        <v>0.08841856028173729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H13">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J13">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N13">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q13">
-        <v>250.2223487107388</v>
+        <v>326.8698997685391</v>
       </c>
       <c r="R13">
-        <v>250.2223487107388</v>
+        <v>2941.829097916852</v>
       </c>
       <c r="S13">
-        <v>0.02632078854426511</v>
+        <v>0.0289919996546322</v>
       </c>
       <c r="T13">
-        <v>0.02632078854426511</v>
+        <v>0.0289919996546322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H14">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I14">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J14">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N14">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q14">
-        <v>2.185236941298612</v>
+        <v>3.499763884586667</v>
       </c>
       <c r="R14">
-        <v>2.185236941298612</v>
+        <v>31.49787496128</v>
       </c>
       <c r="S14">
-        <v>0.0002298641977720712</v>
+        <v>0.0003104144903066318</v>
       </c>
       <c r="T14">
-        <v>0.0002298641977720712</v>
+        <v>0.0003104144903066317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H15">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I15">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J15">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N15">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q15">
-        <v>39.06016031135452</v>
+        <v>53.57533497538444</v>
       </c>
       <c r="R15">
-        <v>39.06016031135452</v>
+        <v>482.17801477846</v>
       </c>
       <c r="S15">
-        <v>0.004108722603546307</v>
+        <v>0.004751909228115012</v>
       </c>
       <c r="T15">
-        <v>0.004108722603546307</v>
+        <v>0.004751909228115012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H16">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I16">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J16">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N16">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q16">
-        <v>98.55902570405182</v>
+        <v>152.7585953180156</v>
       </c>
       <c r="R16">
-        <v>98.55902570405182</v>
+        <v>1374.82735786214</v>
       </c>
       <c r="S16">
-        <v>0.01036738440051979</v>
+        <v>0.01354905161300592</v>
       </c>
       <c r="T16">
-        <v>0.01036738440051979</v>
+        <v>0.01354905161300592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H17">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I17">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J17">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N17">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q17">
-        <v>108.9144930704011</v>
+        <v>150.8661156230511</v>
       </c>
       <c r="R17">
-        <v>108.9144930704011</v>
+        <v>1357.79504060746</v>
       </c>
       <c r="S17">
-        <v>0.01145667186117665</v>
+        <v>0.01338119654069226</v>
       </c>
       <c r="T17">
-        <v>0.01145667186117665</v>
+        <v>0.01338119654069225</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H18">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I18">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J18">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N18">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q18">
-        <v>171.6065061481334</v>
+        <v>243.8823159328111</v>
       </c>
       <c r="R18">
-        <v>171.6065061481334</v>
+        <v>2194.9408433953</v>
       </c>
       <c r="S18">
-        <v>0.01805121958297445</v>
+        <v>0.02163134636839235</v>
       </c>
       <c r="T18">
-        <v>0.01805121958297445</v>
+        <v>0.02163134636839235</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H19">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I19">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J19">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N19">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q19">
-        <v>45.36593246924512</v>
+        <v>79.96778048370223</v>
       </c>
       <c r="R19">
-        <v>45.36593246924512</v>
+        <v>719.71002435332</v>
       </c>
       <c r="S19">
-        <v>0.004772024248788316</v>
+        <v>0.007092809297542865</v>
       </c>
       <c r="T19">
-        <v>0.004772024248788316</v>
+        <v>0.007092809297542864</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H20">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I20">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J20">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N20">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q20">
-        <v>1.576550839268309</v>
+        <v>1.948593518549333</v>
       </c>
       <c r="R20">
-        <v>1.576550839268309</v>
+        <v>17.537341666944</v>
       </c>
       <c r="S20">
-        <v>0.0001658367507277897</v>
+        <v>0.0001728321349160773</v>
       </c>
       <c r="T20">
-        <v>0.0001658367507277897</v>
+        <v>0.0001728321349160772</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H21">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I21">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J21">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N21">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q21">
-        <v>28.18016085899846</v>
+        <v>29.82959820430089</v>
       </c>
       <c r="R21">
-        <v>28.18016085899846</v>
+        <v>268.466383838708</v>
       </c>
       <c r="S21">
-        <v>0.002964259823052497</v>
+        <v>0.002645761207897389</v>
       </c>
       <c r="T21">
-        <v>0.002964259823052497</v>
+        <v>0.002645761207897388</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H22">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I22">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J22">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N22">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q22">
-        <v>71.10593444336097</v>
+        <v>85.05271171301911</v>
       </c>
       <c r="R22">
-        <v>71.10593444336097</v>
+        <v>765.474405417172</v>
       </c>
       <c r="S22">
-        <v>0.007479604737023872</v>
+        <v>0.007543821533752364</v>
       </c>
       <c r="T22">
-        <v>0.007479604737023872</v>
+        <v>0.007543821533752362</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H23">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I23">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J23">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N23">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q23">
-        <v>78.57694157256113</v>
+        <v>83.99901958143423</v>
       </c>
       <c r="R23">
-        <v>78.57694157256113</v>
+        <v>755.9911762329081</v>
       </c>
       <c r="S23">
-        <v>0.008265476981743694</v>
+        <v>0.007450363427219368</v>
       </c>
       <c r="T23">
-        <v>0.008265476981743694</v>
+        <v>0.007450363427219366</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H24">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I24">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J24">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N24">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q24">
-        <v>123.8064285747272</v>
+        <v>135.7884462458822</v>
       </c>
       <c r="R24">
-        <v>123.8064285747272</v>
+        <v>1222.09601621294</v>
       </c>
       <c r="S24">
-        <v>0.0130231485865523</v>
+        <v>0.01204387002122663</v>
       </c>
       <c r="T24">
-        <v>0.0130231485865523</v>
+        <v>0.01204387002122662</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H25">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I25">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J25">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N25">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q25">
-        <v>32.72949379396584</v>
+        <v>44.52434617934844</v>
       </c>
       <c r="R25">
-        <v>32.72949379396584</v>
+        <v>400.719115614136</v>
       </c>
       <c r="S25">
-        <v>0.00344280233060909</v>
+        <v>0.003949124192739871</v>
       </c>
       <c r="T25">
-        <v>0.00344280233060909</v>
+        <v>0.00394912419273987</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H26">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I26">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J26">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N26">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O26">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P26">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q26">
-        <v>5.881630367257415</v>
+        <v>7.005853733866667</v>
       </c>
       <c r="R26">
-        <v>5.881630367257415</v>
+        <v>63.0526836048</v>
       </c>
       <c r="S26">
-        <v>0.0006186863403279485</v>
+        <v>0.0006213900673524654</v>
       </c>
       <c r="T26">
-        <v>0.0006186863403279485</v>
+        <v>0.0006213900673524653</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H27">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I27">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J27">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N27">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P27">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q27">
-        <v>105.1315858227623</v>
+        <v>107.2475095344278</v>
       </c>
       <c r="R27">
-        <v>105.1315858227623</v>
+        <v>965.22758580985</v>
       </c>
       <c r="S27">
-        <v>0.01105874936440251</v>
+        <v>0.00951240772424761</v>
       </c>
       <c r="T27">
-        <v>0.01105874936440251</v>
+        <v>0.00951240772424761</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H28">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I28">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J28">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N28">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O28">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P28">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q28">
-        <v>265.2745556295449</v>
+        <v>305.7933079720722</v>
       </c>
       <c r="R28">
-        <v>265.2745556295449</v>
+        <v>2752.13977174865</v>
       </c>
       <c r="S28">
-        <v>0.02790412415547551</v>
+        <v>0.02712259368449948</v>
       </c>
       <c r="T28">
-        <v>0.02790412415547551</v>
+        <v>0.02712259368449947</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H29">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I29">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J29">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N29">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O29">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P29">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q29">
-        <v>293.1466047323154</v>
+        <v>302.0049278485945</v>
       </c>
       <c r="R29">
-        <v>293.1466047323154</v>
+        <v>2718.04435063735</v>
       </c>
       <c r="S29">
-        <v>0.03083597382641544</v>
+        <v>0.0267865801350437</v>
       </c>
       <c r="T29">
-        <v>0.03083597382641544</v>
+        <v>0.02678658013504369</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H30">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I30">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J30">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N30">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O30">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P30">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q30">
-        <v>461.8840267179446</v>
+        <v>488.2054590101945</v>
       </c>
       <c r="R30">
-        <v>461.8840267179446</v>
+        <v>4393.849131091751</v>
       </c>
       <c r="S30">
-        <v>0.04858539559658032</v>
+        <v>0.0433017922697556</v>
       </c>
       <c r="T30">
-        <v>0.04858539559658032</v>
+        <v>0.04330179226975559</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H31">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I31">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J31">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N31">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O31">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P31">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q31">
-        <v>122.103759554557</v>
+        <v>160.0801059631889</v>
       </c>
       <c r="R31">
-        <v>122.103759554557</v>
+        <v>1440.7209536687</v>
       </c>
       <c r="S31">
-        <v>0.01284404551493747</v>
+        <v>0.01419843913460567</v>
       </c>
       <c r="T31">
-        <v>0.01284404551493747</v>
+        <v>0.01419843913460567</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H32">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I32">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J32">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N32">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O32">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P32">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q32">
-        <v>15.35141452554217</v>
+        <v>20.00255144248533</v>
       </c>
       <c r="R32">
-        <v>15.35141452554217</v>
+        <v>180.022962982368</v>
       </c>
       <c r="S32">
-        <v>0.001614809139407675</v>
+        <v>0.001774143060963834</v>
       </c>
       <c r="T32">
-        <v>0.001614809139407675</v>
+        <v>0.001774143060963833</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H33">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I33">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J33">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N33">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P33">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q33">
-        <v>274.3998607388518</v>
+        <v>306.2044838547945</v>
       </c>
       <c r="R33">
-        <v>274.3998607388518</v>
+        <v>2755.840354693151</v>
       </c>
       <c r="S33">
-        <v>0.02886401134149832</v>
+        <v>0.02715906327395485</v>
       </c>
       <c r="T33">
-        <v>0.02886401134149832</v>
+        <v>0.02715906327395485</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H34">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I34">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J34">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N34">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O34">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P34">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q34">
-        <v>692.3827939304965</v>
+        <v>873.0765165579954</v>
       </c>
       <c r="R34">
-        <v>692.3827939304965</v>
+        <v>7857.688649021959</v>
       </c>
       <c r="S34">
-        <v>0.07283146851043029</v>
+        <v>0.07743825321463008</v>
       </c>
       <c r="T34">
-        <v>0.07283146851043029</v>
+        <v>0.07743825321463006</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H35">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I35">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J35">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N35">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O35">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P35">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q35">
-        <v>765.1305445941296</v>
+        <v>862.2602376029779</v>
       </c>
       <c r="R35">
-        <v>765.1305445941296</v>
+        <v>7760.342138426801</v>
       </c>
       <c r="S35">
-        <v>0.0804837752374442</v>
+        <v>0.07647889428941143</v>
       </c>
       <c r="T35">
-        <v>0.0804837752374442</v>
+        <v>0.07647889428941142</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H36">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I36">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J36">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N36">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O36">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P36">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q36">
-        <v>1205.545522946569</v>
+        <v>1393.885053744034</v>
       </c>
       <c r="R36">
-        <v>1205.545522946569</v>
+        <v>12544.96548369631</v>
       </c>
       <c r="S36">
-        <v>0.1268108502436112</v>
+        <v>0.123631802822346</v>
       </c>
       <c r="T36">
-        <v>0.1268108502436112</v>
+        <v>0.1236318028223459</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H37">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I37">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J37">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N37">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O37">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P37">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q37">
-        <v>318.6982708883136</v>
+        <v>457.0478739755158</v>
       </c>
       <c r="R37">
-        <v>318.6982708883136</v>
+        <v>4113.430865779642</v>
       </c>
       <c r="S37">
-        <v>0.03352374334544889</v>
+        <v>0.04053824415717554</v>
       </c>
       <c r="T37">
-        <v>0.03352374334544889</v>
+        <v>0.04053824415717553</v>
       </c>
     </row>
   </sheetData>
